--- a/data/source/as-level/aslevel_2020_ni.xlsx
+++ b/data/source/as-level/aslevel_2020_ni.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jointcouncilqualifications.sharepoint.com/sites/JCQData/Shared Documents/Operations/Results/Summer Exam Series/2020/Website Files/A Level and AS Results Summer 2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Results day\microsite\data\source\as-level\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_05C64C045D614C01D7995059496A3E2B32FBC0DF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A1E42B34-69B7-4435-B0C2-EF32FC27CAC6}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19545" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Northern Ireland All Ages cum %" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="67">
   <si>
     <t>JOINT COUNCIL FOR QUALIFICATIONS</t>
   </si>
@@ -220,23 +219,23 @@
     <t>(-)</t>
   </si>
   <si>
-    <t>Law (4)</t>
+    <t xml:space="preserve">(4) - Very low entry figures (-) not published, but are counted in 'All Subjects'  </t>
   </si>
   <si>
-    <t xml:space="preserve">(4) - Very low entry figures (-) not published, but are counted in 'All Subjects'  </t>
+    <t>Law (4)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="###0"/>
     <numFmt numFmtId="165" formatCode="##0.0"/>
     <numFmt numFmtId="166" formatCode="\(###0\)"/>
     <numFmt numFmtId="167" formatCode="\(##0.0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -248,23 +247,33 @@
       <b/>
       <sz val="16"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -379,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -433,7 +442,10 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -757,17 +769,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="A298" sqref="A298"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -775,78 +787,79 @@
     <col min="5" max="10" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="21" t="s">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="21" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="21" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="23" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -859,16 +872,16 @@
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -896,7 +909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -904,31 +917,31 @@
         <v>19</v>
       </c>
       <c r="C12" s="9">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D12" s="13">
-        <v>1.1342155009451798</v>
+        <v>1.13373003445036</v>
       </c>
       <c r="E12" s="11">
-        <v>26.666666666666668</v>
+        <v>36.464088397790057</v>
       </c>
       <c r="F12" s="11">
-        <v>55.000000000000007</v>
+        <v>70.165745856353595</v>
       </c>
       <c r="G12" s="11">
-        <v>87.777777777777771</v>
+        <v>98.342541436464089</v>
       </c>
       <c r="H12" s="11">
-        <v>95</v>
+        <v>99.447513812154696</v>
       </c>
       <c r="I12" s="11">
-        <v>99.444444444444443</v>
+        <v>100</v>
       </c>
       <c r="J12" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="15">
@@ -956,7 +969,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
@@ -964,31 +977,31 @@
         <v>21</v>
       </c>
       <c r="C14" s="9">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="D14" s="13">
-        <v>3.0118708917884822</v>
+        <v>3.0600292825768665</v>
       </c>
       <c r="E14" s="11">
-        <v>41.368078175895768</v>
+        <v>51.834130781499198</v>
       </c>
       <c r="F14" s="11">
-        <v>74.429967426710093</v>
+        <v>82.775119617224874</v>
       </c>
       <c r="G14" s="11">
-        <v>92.99674267100977</v>
+        <v>97.448165869218499</v>
       </c>
       <c r="H14" s="11">
-        <v>98.045602605863195</v>
+        <v>98.883572567783091</v>
       </c>
       <c r="I14" s="11">
-        <v>99.837133550488602</v>
+        <v>99.840510366826152</v>
       </c>
       <c r="J14" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="15">
@@ -1016,7 +1029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1024,31 +1037,31 @@
         <v>22</v>
       </c>
       <c r="C16" s="9">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="D16" s="13">
-        <v>2.1899823477493379</v>
+        <v>2.2164312165683717</v>
       </c>
       <c r="E16" s="11">
-        <v>38.035264483627202</v>
+        <v>48.39108910891089</v>
       </c>
       <c r="F16" s="11">
-        <v>70.025188916876573</v>
+        <v>79.950495049504951</v>
       </c>
       <c r="G16" s="11">
-        <v>91.813602015113347</v>
+        <v>97.648514851485146</v>
       </c>
       <c r="H16" s="11">
-        <v>97.355163727959692</v>
+        <v>99.009900990099013</v>
       </c>
       <c r="I16" s="11">
-        <v>99.748110831234257</v>
+        <v>99.876237623762378</v>
       </c>
       <c r="J16" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="15">
@@ -1076,7 +1089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="15"/>
@@ -1088,7 +1101,7 @@
       <c r="I18" s="16"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1099,28 +1112,28 @@
         <v>1315</v>
       </c>
       <c r="D19" s="13">
-        <v>8.286074354127285</v>
+        <v>8.2367679298465397</v>
       </c>
       <c r="E19" s="11">
-        <v>25.247148288973385</v>
+        <v>35.285171102661593</v>
       </c>
       <c r="F19" s="11">
-        <v>48.517110266159698</v>
+        <v>63.117870722433459</v>
       </c>
       <c r="G19" s="11">
-        <v>69.885931558935368</v>
+        <v>85.931558935361224</v>
       </c>
       <c r="H19" s="11">
-        <v>84.562737642585546</v>
+        <v>96.121673003802272</v>
       </c>
       <c r="I19" s="11">
-        <v>93.688212927756652</v>
+        <v>99.695817490494292</v>
       </c>
       <c r="J19" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="15">
@@ -1148,7 +1161,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -1159,28 +1172,28 @@
         <v>2481</v>
       </c>
       <c r="D21" s="13">
-        <v>12.170116746787011</v>
+        <v>12.108345534407029</v>
       </c>
       <c r="E21" s="11">
-        <v>31.076178960096733</v>
+        <v>41.475211608222487</v>
       </c>
       <c r="F21" s="11">
-        <v>55.743651753325274</v>
+        <v>69.528415961305924</v>
       </c>
       <c r="G21" s="11">
-        <v>76.380491737202732</v>
+        <v>89.883111648528825</v>
       </c>
       <c r="H21" s="11">
-        <v>89.117291414752117</v>
+        <v>97.823458282950426</v>
       </c>
       <c r="I21" s="11">
-        <v>95.808141878274881</v>
+        <v>99.758162031438928</v>
       </c>
       <c r="J21" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="15">
@@ -1208,7 +1221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
@@ -1219,28 +1232,28 @@
         <v>3796</v>
       </c>
       <c r="D23" s="13">
-        <v>10.46999117387467</v>
+        <v>10.412837745165273</v>
       </c>
       <c r="E23" s="11">
-        <v>29.056902002107481</v>
+        <v>39.33087460484721</v>
       </c>
       <c r="F23" s="11">
-        <v>53.240252897787144</v>
+        <v>67.307692307692307</v>
       </c>
       <c r="G23" s="11">
-        <v>74.130663856691257</v>
+        <v>88.514225500526862</v>
       </c>
       <c r="H23" s="11">
-        <v>87.539515279241314</v>
+        <v>97.233930453108528</v>
       </c>
       <c r="I23" s="11">
-        <v>95.073761854583765</v>
+        <v>99.736564805057952</v>
       </c>
       <c r="J23" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="15">
@@ -1268,7 +1281,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="15"/>
@@ -1280,7 +1293,7 @@
       <c r="I25" s="16"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -1291,28 +1304,28 @@
         <v>1389</v>
       </c>
       <c r="D26" s="13">
-        <v>8.7523629489603039</v>
+        <v>8.7002818665831505</v>
       </c>
       <c r="E26" s="11">
-        <v>13.750899928005762</v>
+        <v>24.190064794816415</v>
       </c>
       <c r="F26" s="11">
-        <v>45.644348452123829</v>
+        <v>61.339092872570191</v>
       </c>
       <c r="G26" s="11">
-        <v>73.866090712742988</v>
+        <v>87.616990640748739</v>
       </c>
       <c r="H26" s="11">
-        <v>89.128869690424764</v>
+        <v>97.120230381569471</v>
       </c>
       <c r="I26" s="11">
-        <v>96.400287976961835</v>
+        <v>99.568034557235421</v>
       </c>
       <c r="J26" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="15">
@@ -1340,7 +1353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
@@ -1351,28 +1364,28 @@
         <v>1198</v>
       </c>
       <c r="D28" s="13">
-        <v>5.8765819680172662</v>
+        <v>5.8467545143972668</v>
       </c>
       <c r="E28" s="11">
-        <v>24.123539232053425</v>
+        <v>35.559265442404012</v>
       </c>
       <c r="F28" s="11">
-        <v>54.924874791318871</v>
+        <v>71.035058430717868</v>
       </c>
       <c r="G28" s="11">
-        <v>80.050083472454091</v>
+        <v>92.654424040066772</v>
       </c>
       <c r="H28" s="11">
-        <v>91.235392320534231</v>
+        <v>96.994991652754592</v>
       </c>
       <c r="I28" s="11">
-        <v>96.744574290484138</v>
+        <v>99.332220367278808</v>
       </c>
       <c r="J28" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="15">
@@ -1400,7 +1413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>20</v>
       </c>
@@ -1411,28 +1424,28 @@
         <v>2587</v>
       </c>
       <c r="D30" s="13">
-        <v>7.1353706972639017</v>
+        <v>7.0964202441366071</v>
       </c>
       <c r="E30" s="11">
-        <v>18.554310011596446</v>
+        <v>29.454967143409355</v>
       </c>
       <c r="F30" s="11">
-        <v>49.942017781213757</v>
+        <v>65.829145728643212</v>
       </c>
       <c r="G30" s="11">
-        <v>76.729802860456132</v>
+        <v>89.949748743718601</v>
       </c>
       <c r="H30" s="11">
-        <v>90.104367993815231</v>
+        <v>97.06223424816389</v>
       </c>
       <c r="I30" s="11">
-        <v>96.559721685349828</v>
+        <v>99.458832624661781</v>
       </c>
       <c r="J30" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="15">
@@ -1460,7 +1473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="15"/>
@@ -1472,7 +1485,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
     </row>
-    <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
@@ -1483,28 +1496,28 @@
         <v>1030</v>
       </c>
       <c r="D33" s="13">
-        <v>6.4902331442974166</v>
+        <v>6.4516129032258061</v>
       </c>
       <c r="E33" s="11">
-        <v>38.252427184466022</v>
+        <v>47.572815533980581</v>
       </c>
       <c r="F33" s="11">
-        <v>59.514563106796118</v>
+        <v>74.077669902912618</v>
       </c>
       <c r="G33" s="11">
-        <v>77.184466019417471</v>
+        <v>90.388349514563103</v>
       </c>
       <c r="H33" s="11">
-        <v>88.155339805825236</v>
+        <v>97.378640776699029</v>
       </c>
       <c r="I33" s="11">
-        <v>94.757281553398059</v>
+        <v>99.22330097087378</v>
       </c>
       <c r="J33" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="15">
@@ -1532,7 +1545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>20</v>
       </c>
@@ -1543,28 +1556,28 @@
         <v>1562</v>
       </c>
       <c r="D35" s="13">
-        <v>7.6621210634749328</v>
+        <v>7.6232308443142998</v>
       </c>
       <c r="E35" s="11">
-        <v>36.683738796414858</v>
+        <v>48.911651728553132</v>
       </c>
       <c r="F35" s="11">
-        <v>61.651728553137005</v>
+        <v>76.056338028169009</v>
       </c>
       <c r="G35" s="11">
-        <v>78.489116517285524</v>
+        <v>92.189500640204869</v>
       </c>
       <c r="H35" s="11">
-        <v>89.30857874519846</v>
+        <v>97.503201024327794</v>
       </c>
       <c r="I35" s="11">
-        <v>95.838668373879642</v>
+        <v>99.423815620998724</v>
       </c>
       <c r="J35" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="15">
@@ -1592,7 +1605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>20</v>
       </c>
@@ -1603,28 +1616,28 @@
         <v>2592</v>
       </c>
       <c r="D37" s="13">
-        <v>7.1491615180935568</v>
+        <v>7.1101357838430941</v>
       </c>
       <c r="E37" s="11">
-        <v>37.307098765432102</v>
+        <v>48.379629629629626</v>
       </c>
       <c r="F37" s="11">
-        <v>60.802469135802475</v>
+        <v>75.270061728395063</v>
       </c>
       <c r="G37" s="11">
-        <v>77.970679012345684</v>
+        <v>91.473765432098759</v>
       </c>
       <c r="H37" s="11">
-        <v>88.850308641975303</v>
+        <v>97.453703703703709</v>
       </c>
       <c r="I37" s="11">
-        <v>95.408950617283949</v>
+        <v>99.34413580246914</v>
       </c>
       <c r="J37" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="15">
@@ -1652,7 +1665,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="15"/>
@@ -1664,7 +1677,7 @@
       <c r="I39" s="16"/>
       <c r="J39" s="17"/>
     </row>
-    <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>26</v>
       </c>
@@ -1675,19 +1688,19 @@
         <v>9</v>
       </c>
       <c r="D40" s="13">
-        <v>5.6710775047258973E-2</v>
+        <v>5.6373316630128401E-2</v>
       </c>
       <c r="E40" s="11">
-        <v>22.222222222222221</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="F40" s="11">
-        <v>44.444444444444443</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="G40" s="11">
         <v>77.777777777777786</v>
       </c>
       <c r="H40" s="11">
-        <v>88.888888888888886</v>
+        <v>100</v>
       </c>
       <c r="I40" s="11">
         <v>100</v>
@@ -1696,7 +1709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="15">
@@ -1724,7 +1737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>20</v>
       </c>
@@ -1735,16 +1748,16 @@
         <v>14</v>
       </c>
       <c r="D42" s="13">
-        <v>6.867458059452565E-2</v>
+        <v>6.8326012689116644E-2</v>
       </c>
       <c r="E42" s="11">
-        <v>50</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="F42" s="11">
-        <v>71.428571428571431</v>
+        <v>92.857142857142861</v>
       </c>
       <c r="G42" s="11">
-        <v>92.857142857142861</v>
+        <v>100</v>
       </c>
       <c r="H42" s="11">
         <v>100</v>
@@ -1756,7 +1769,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="15">
@@ -1784,7 +1797,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>20</v>
       </c>
@@ -1795,19 +1808,19 @@
         <v>23</v>
       </c>
       <c r="D44" s="13">
-        <v>6.3437775816416603E-2</v>
+        <v>6.3091482649842281E-2</v>
       </c>
       <c r="E44" s="11">
-        <v>39.130434782608695</v>
+        <v>56.521739130434781</v>
       </c>
       <c r="F44" s="11">
-        <v>60.869565217391312</v>
+        <v>78.260869565217391</v>
       </c>
       <c r="G44" s="11">
-        <v>86.956521739130437</v>
+        <v>91.304347826086953</v>
       </c>
       <c r="H44" s="11">
-        <v>95.652173913043484</v>
+        <v>100</v>
       </c>
       <c r="I44" s="11">
         <v>100</v>
@@ -1816,7 +1829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="15">
@@ -1844,7 +1857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="15"/>
@@ -1856,7 +1869,7 @@
       <c r="I46" s="16"/>
       <c r="J46" s="17"/>
     </row>
-    <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>27</v>
       </c>
@@ -1888,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="15">
@@ -1916,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>20</v>
       </c>
@@ -1948,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="15">
@@ -1976,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>20</v>
       </c>
@@ -2008,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="15">
@@ -2036,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="15"/>
@@ -2048,7 +2061,7 @@
       <c r="I53" s="16"/>
       <c r="J53" s="17"/>
     </row>
-    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>28</v>
       </c>
@@ -2059,28 +2072,28 @@
         <v>331</v>
       </c>
       <c r="D54" s="13">
-        <v>2.0856962822936356</v>
+        <v>2.0732853116191672</v>
       </c>
       <c r="E54" s="11">
-        <v>34.44108761329305</v>
+        <v>47.432024169184288</v>
       </c>
       <c r="F54" s="11">
-        <v>58.912386706948638</v>
+        <v>78.247734138972817</v>
       </c>
       <c r="G54" s="11">
-        <v>81.570996978851966</v>
+        <v>96.072507552870093</v>
       </c>
       <c r="H54" s="11">
-        <v>92.749244712990944</v>
+        <v>98.489425981873111</v>
       </c>
       <c r="I54" s="11">
-        <v>98.187311178247739</v>
+        <v>100</v>
       </c>
       <c r="J54" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="15">
@@ -2108,7 +2121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>20</v>
       </c>
@@ -2119,28 +2132,28 @@
         <v>64</v>
       </c>
       <c r="D56" s="13">
-        <v>0.31394093986068872</v>
+        <v>0.31234748657881894</v>
       </c>
       <c r="E56" s="11">
-        <v>34.375</v>
+        <v>48.4375</v>
       </c>
       <c r="F56" s="11">
-        <v>64.0625</v>
+        <v>82.8125</v>
       </c>
       <c r="G56" s="11">
-        <v>87.5</v>
+        <v>95.3125</v>
       </c>
       <c r="H56" s="11">
-        <v>93.75</v>
+        <v>100</v>
       </c>
       <c r="I56" s="11">
-        <v>98.4375</v>
+        <v>100</v>
       </c>
       <c r="J56" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="15">
@@ -2168,7 +2181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>20</v>
       </c>
@@ -2179,28 +2192,28 @@
         <v>395</v>
       </c>
       <c r="D58" s="13">
-        <v>1.0894748455428067</v>
+        <v>1.0835276368125086</v>
       </c>
       <c r="E58" s="11">
-        <v>34.430379746835442</v>
+        <v>47.594936708860757</v>
       </c>
       <c r="F58" s="11">
-        <v>59.746835443037973</v>
+        <v>78.987341772151893</v>
       </c>
       <c r="G58" s="11">
-        <v>82.531645569620252</v>
+        <v>95.949367088607602</v>
       </c>
       <c r="H58" s="11">
-        <v>92.911392405063282</v>
+        <v>98.734177215189874</v>
       </c>
       <c r="I58" s="11">
-        <v>98.22784810126582</v>
+        <v>100</v>
       </c>
       <c r="J58" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="15">
@@ -2228,7 +2241,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -2240,7 +2253,7 @@
       <c r="I60" s="18"/>
       <c r="J60" s="18"/>
     </row>
-    <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>29</v>
       </c>
@@ -2272,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="15">
@@ -2300,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>20</v>
       </c>
@@ -2332,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="15">
@@ -2360,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>20</v>
       </c>
@@ -2392,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="15">
@@ -2420,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="15"/>
@@ -2432,7 +2445,7 @@
       <c r="I67" s="16"/>
       <c r="J67" s="17"/>
     </row>
-    <row r="68" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>30</v>
       </c>
@@ -2443,28 +2456,28 @@
         <v>551</v>
       </c>
       <c r="D68" s="13">
-        <v>3.4719596723377442</v>
+        <v>3.4512997181334168</v>
       </c>
       <c r="E68" s="11">
-        <v>25.045372050816695</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="F68" s="11">
-        <v>57.713248638838479</v>
+        <v>75.317604355716881</v>
       </c>
       <c r="G68" s="11">
-        <v>83.666061705989108</v>
+        <v>95.281306715063522</v>
       </c>
       <c r="H68" s="11">
-        <v>94.73684210526315</v>
+        <v>99.455535390199628</v>
       </c>
       <c r="I68" s="11">
-        <v>98.911070780399285</v>
+        <v>99.818511796733205</v>
       </c>
       <c r="J68" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="15">
@@ -2492,7 +2505,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>20</v>
       </c>
@@ -2503,28 +2516,28 @@
         <v>258</v>
       </c>
       <c r="D70" s="13">
-        <v>1.2655744138134013</v>
+        <v>1.259150805270864</v>
       </c>
       <c r="E70" s="11">
-        <v>39.534883720930232</v>
+        <v>51.550387596899228</v>
       </c>
       <c r="F70" s="11">
-        <v>71.705426356589157</v>
+        <v>82.558139534883722</v>
       </c>
       <c r="G70" s="11">
-        <v>87.596899224806208</v>
+        <v>96.899224806201545</v>
       </c>
       <c r="H70" s="11">
-        <v>96.511627906976756</v>
+        <v>98.449612403100772</v>
       </c>
       <c r="I70" s="11">
-        <v>99.224806201550393</v>
+        <v>98.837209302325576</v>
       </c>
       <c r="J70" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="15">
@@ -2552,7 +2565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>20</v>
       </c>
@@ -2563,28 +2576,28 @@
         <v>809</v>
       </c>
       <c r="D72" s="13">
-        <v>2.2313548102383054</v>
+        <v>2.2191743245096691</v>
       </c>
       <c r="E72" s="11">
-        <v>29.666254635352285</v>
+        <v>41.532756489493202</v>
       </c>
       <c r="F72" s="11">
-        <v>62.175525339925827</v>
+        <v>77.62669962917181</v>
       </c>
       <c r="G72" s="11">
-        <v>84.919653893695923</v>
+        <v>95.797280593325098</v>
       </c>
       <c r="H72" s="11">
-        <v>95.302843016069218</v>
+        <v>99.134734239802228</v>
       </c>
       <c r="I72" s="11">
-        <v>99.011124845488254</v>
+        <v>99.505562422744134</v>
       </c>
       <c r="J72" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="15">
@@ -2612,7 +2625,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="15"/>
@@ -2624,7 +2637,7 @@
       <c r="I74" s="16"/>
       <c r="J74" s="17"/>
     </row>
-    <row r="75" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>31</v>
       </c>
@@ -2635,19 +2648,19 @@
         <v>91</v>
       </c>
       <c r="D75" s="13">
-        <v>0.57340894770006301</v>
+        <v>0.56999686814907613</v>
       </c>
       <c r="E75" s="11">
-        <v>23.076923076923077</v>
+        <v>48.35164835164835</v>
       </c>
       <c r="F75" s="11">
-        <v>51.648351648351657</v>
+        <v>74.72527472527473</v>
       </c>
       <c r="G75" s="11">
-        <v>91.208791208791212</v>
+        <v>98.901098901098905</v>
       </c>
       <c r="H75" s="11">
-        <v>98.901098901098905</v>
+        <v>100</v>
       </c>
       <c r="I75" s="11">
         <v>100</v>
@@ -2656,7 +2669,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="15">
@@ -2684,7 +2697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>20</v>
       </c>
@@ -2695,13 +2708,13 @@
         <v>138</v>
       </c>
       <c r="D77" s="13">
-        <v>0.67693515157461004</v>
+        <v>0.67349926793557835</v>
       </c>
       <c r="E77" s="11">
-        <v>45.652173913043477</v>
+        <v>63.04347826086957</v>
       </c>
       <c r="F77" s="11">
-        <v>83.333333333333343</v>
+        <v>94.927536231884062</v>
       </c>
       <c r="G77" s="11">
         <v>100</v>
@@ -2716,7 +2729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="15">
@@ -2744,7 +2757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>20</v>
       </c>
@@ -2755,19 +2768,19 @@
         <v>229</v>
       </c>
       <c r="D79" s="13">
-        <v>0.63161959399823486</v>
+        <v>0.62817171855712517</v>
       </c>
       <c r="E79" s="11">
-        <v>36.681222707423586</v>
+        <v>57.20524017467249</v>
       </c>
       <c r="F79" s="11">
-        <v>70.742358078602621</v>
+        <v>86.899563318777297</v>
       </c>
       <c r="G79" s="11">
-        <v>96.506550218340621</v>
+        <v>99.563318777292579</v>
       </c>
       <c r="H79" s="11">
-        <v>99.563318777292579</v>
+        <v>100</v>
       </c>
       <c r="I79" s="11">
         <v>100</v>
@@ -2776,7 +2789,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="15">
@@ -2804,7 +2817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="15"/>
@@ -2816,7 +2829,7 @@
       <c r="I81" s="16"/>
       <c r="J81" s="17"/>
     </row>
-    <row r="82" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>32</v>
       </c>
@@ -2827,28 +2840,28 @@
         <v>221</v>
       </c>
       <c r="D82" s="13">
-        <v>1.3925645872715817</v>
+        <v>1.3842781083620419</v>
       </c>
       <c r="E82" s="11">
-        <v>27.149321266968325</v>
+        <v>37.556561085972852</v>
       </c>
       <c r="F82" s="11">
-        <v>48.868778280542983</v>
+        <v>68.325791855203619</v>
       </c>
       <c r="G82" s="11">
-        <v>73.303167420814475</v>
+        <v>89.592760180995484</v>
       </c>
       <c r="H82" s="11">
-        <v>86.425339366515843</v>
+        <v>96.832579185520359</v>
       </c>
       <c r="I82" s="11">
-        <v>94.117647058823522</v>
+        <v>99.095022624434392</v>
       </c>
       <c r="J82" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="15">
@@ -2876,7 +2889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>20</v>
       </c>
@@ -2887,28 +2900,28 @@
         <v>136</v>
       </c>
       <c r="D84" s="13">
-        <v>0.6671244972039635</v>
+        <v>0.66373840897999026</v>
       </c>
       <c r="E84" s="11">
-        <v>33.088235294117645</v>
+        <v>42.647058823529413</v>
       </c>
       <c r="F84" s="11">
-        <v>55.882352941176471</v>
+        <v>69.85294117647058</v>
       </c>
       <c r="G84" s="11">
-        <v>72.794117647058826</v>
+        <v>91.17647058823529</v>
       </c>
       <c r="H84" s="11">
-        <v>87.5</v>
+        <v>97.058823529411768</v>
       </c>
       <c r="I84" s="11">
-        <v>93.382352941176478</v>
+        <v>100</v>
       </c>
       <c r="J84" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="15">
@@ -2936,7 +2949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>20</v>
       </c>
@@ -2947,28 +2960,28 @@
         <v>357</v>
       </c>
       <c r="D86" s="13">
-        <v>0.98466460723742266</v>
+        <v>0.97928953504320382</v>
       </c>
       <c r="E86" s="11">
-        <v>29.411764705882355</v>
+        <v>39.495798319327733</v>
       </c>
       <c r="F86" s="11">
-        <v>51.540616246498594</v>
+        <v>68.907563025210081</v>
       </c>
       <c r="G86" s="11">
-        <v>73.109243697478988</v>
+        <v>90.196078431372555</v>
       </c>
       <c r="H86" s="11">
-        <v>86.834733893557427</v>
+        <v>96.918767507002798</v>
       </c>
       <c r="I86" s="11">
-        <v>93.837535014005596</v>
+        <v>99.439775910364148</v>
       </c>
       <c r="J86" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="15">
@@ -2996,7 +3009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="15"/>
@@ -3008,7 +3021,7 @@
       <c r="I88" s="16"/>
       <c r="J88" s="17"/>
     </row>
-    <row r="89" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>33</v>
       </c>
@@ -3019,28 +3032,28 @@
         <v>27</v>
       </c>
       <c r="D89" s="13">
-        <v>0.17013232514177695</v>
+        <v>0.16911994989038523</v>
       </c>
       <c r="E89" s="11">
-        <v>11.111111111111111</v>
+        <v>29.629629629629626</v>
       </c>
       <c r="F89" s="11">
-        <v>55.555555555555557</v>
+        <v>62.962962962962962</v>
       </c>
       <c r="G89" s="11">
-        <v>96.296296296296291</v>
+        <v>100</v>
       </c>
       <c r="H89" s="11">
-        <v>96.296296296296291</v>
+        <v>100</v>
       </c>
       <c r="I89" s="11">
-        <v>96.296296296296291</v>
+        <v>100</v>
       </c>
       <c r="J89" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="15">
@@ -3068,7 +3081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>20</v>
       </c>
@@ -3079,19 +3092,19 @@
         <v>15</v>
       </c>
       <c r="D91" s="13">
-        <v>7.3579907779848922E-2</v>
+        <v>7.320644216691069E-2</v>
       </c>
       <c r="E91" s="11">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="F91" s="11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G91" s="11">
-        <v>66.666666666666657</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="H91" s="11">
-        <v>93.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="I91" s="11">
         <v>100</v>
@@ -3100,7 +3113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="15">
@@ -3128,7 +3141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>20</v>
       </c>
@@ -3139,28 +3152,28 @@
         <v>42</v>
       </c>
       <c r="D93" s="13">
-        <v>0.11584289496910855</v>
+        <v>0.11521053353449459</v>
       </c>
       <c r="E93" s="11">
-        <v>9.5238095238095237</v>
+        <v>26.190476190476193</v>
       </c>
       <c r="F93" s="11">
-        <v>42.857142857142854</v>
+        <v>61.904761904761905</v>
       </c>
       <c r="G93" s="11">
-        <v>85.714285714285708</v>
+        <v>95.238095238095227</v>
       </c>
       <c r="H93" s="11">
-        <v>95.238095238095227</v>
+        <v>100</v>
       </c>
       <c r="I93" s="11">
-        <v>97.61904761904762</v>
+        <v>100</v>
       </c>
       <c r="J93" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="15">
@@ -3188,7 +3201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="15"/>
@@ -3200,7 +3213,7 @@
       <c r="I95" s="16"/>
       <c r="J95" s="17"/>
     </row>
-    <row r="96" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>34</v>
       </c>
@@ -3208,31 +3221,31 @@
         <v>19</v>
       </c>
       <c r="C96" s="9">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D96" s="13">
-        <v>2.7725267800882167</v>
+        <v>2.7936110241152523</v>
       </c>
       <c r="E96" s="11">
-        <v>17.272727272727273</v>
+        <v>25.784753363228702</v>
       </c>
       <c r="F96" s="11">
-        <v>45.909090909090914</v>
+        <v>60.089686098654703</v>
       </c>
       <c r="G96" s="11">
-        <v>77.272727272727266</v>
+        <v>91.255605381165921</v>
       </c>
       <c r="H96" s="11">
-        <v>93.409090909090907</v>
+        <v>97.533632286995527</v>
       </c>
       <c r="I96" s="11">
-        <v>98.636363636363626</v>
+        <v>99.551569506726452</v>
       </c>
       <c r="J96" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="15">
@@ -3260,7 +3273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>20</v>
       </c>
@@ -3268,31 +3281,31 @@
         <v>21</v>
       </c>
       <c r="C98" s="9">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="D98" s="13">
-        <v>7.1470617090159907</v>
+        <v>7.125427037579307</v>
       </c>
       <c r="E98" s="11">
-        <v>25.326012354152365</v>
+        <v>34.178082191780824</v>
       </c>
       <c r="F98" s="11">
-        <v>55.525051475634868</v>
+        <v>69.589041095890408</v>
       </c>
       <c r="G98" s="11">
-        <v>83.527796842827726</v>
+        <v>93.561643835616437</v>
       </c>
       <c r="H98" s="11">
-        <v>96.568291008922444</v>
+        <v>99.041095890410958</v>
       </c>
       <c r="I98" s="11">
-        <v>99.519560741249151</v>
+        <v>99.657534246575338</v>
       </c>
       <c r="J98" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="15">
@@ -3320,7 +3333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>20</v>
       </c>
@@ -3328,31 +3341,31 @@
         <v>22</v>
       </c>
       <c r="C100" s="9">
-        <v>1897</v>
+        <v>1906</v>
       </c>
       <c r="D100" s="13">
-        <v>5.2322374227714032</v>
+        <v>5.2283637361130157</v>
       </c>
       <c r="E100" s="11">
-        <v>23.45809172377438</v>
+        <v>32.214060860440711</v>
       </c>
       <c r="F100" s="11">
-        <v>53.294675803900894</v>
+        <v>67.366211962224554</v>
       </c>
       <c r="G100" s="11">
-        <v>82.076963626779118</v>
+        <v>93.022035676810077</v>
       </c>
       <c r="H100" s="11">
-        <v>95.835529783869262</v>
+        <v>98.688352570828968</v>
       </c>
       <c r="I100" s="11">
-        <v>99.314707432788623</v>
+        <v>99.632738719832119</v>
       </c>
       <c r="J100" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="15">
@@ -3380,7 +3393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="15"/>
@@ -3392,7 +3405,7 @@
       <c r="I102" s="16"/>
       <c r="J102" s="17"/>
     </row>
-    <row r="103" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>35</v>
       </c>
@@ -3403,13 +3416,13 @@
         <v>12</v>
       </c>
       <c r="D103" s="13">
-        <v>7.5614366729678639E-2</v>
+        <v>7.5164422173504553E-2</v>
       </c>
       <c r="E103" s="11">
-        <v>16.666666666666664</v>
+        <v>25</v>
       </c>
       <c r="F103" s="11">
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="G103" s="11">
         <v>66.666666666666657</v>
@@ -3424,7 +3437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="15">
@@ -3452,7 +3465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>20</v>
       </c>
@@ -3463,19 +3476,19 @@
         <v>14</v>
       </c>
       <c r="D105" s="13">
-        <v>6.867458059452565E-2</v>
+        <v>6.8326012689116644E-2</v>
       </c>
       <c r="E105" s="11">
-        <v>7.1428571428571423</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="F105" s="11">
-        <v>42.857142857142854</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="G105" s="11">
-        <v>78.571428571428569</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="H105" s="11">
-        <v>92.857142857142861</v>
+        <v>100</v>
       </c>
       <c r="I105" s="11">
         <v>100</v>
@@ -3484,7 +3497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="15">
@@ -3512,7 +3525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>20</v>
       </c>
@@ -3523,19 +3536,19 @@
         <v>26</v>
       </c>
       <c r="D107" s="13">
-        <v>7.171226831421007E-2</v>
+        <v>7.1320806473734746E-2</v>
       </c>
       <c r="E107" s="11">
-        <v>11.538461538461538</v>
+        <v>34.615384615384613</v>
       </c>
       <c r="F107" s="11">
-        <v>46.153846153846153</v>
+        <v>65.384615384615387</v>
       </c>
       <c r="G107" s="11">
-        <v>73.076923076923066</v>
+        <v>76.923076923076934</v>
       </c>
       <c r="H107" s="11">
-        <v>92.307692307692307</v>
+        <v>96.15384615384616</v>
       </c>
       <c r="I107" s="11">
         <v>100</v>
@@ -3544,7 +3557,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="15">
@@ -3572,7 +3585,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18"/>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
@@ -3584,7 +3597,7 @@
       <c r="I109" s="18"/>
       <c r="J109" s="18"/>
     </row>
-    <row r="110" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>36</v>
       </c>
@@ -3595,28 +3608,28 @@
         <v>139</v>
       </c>
       <c r="D110" s="13">
-        <v>0.87586641461877768</v>
+        <v>0.87065455684309423</v>
       </c>
       <c r="E110" s="11">
-        <v>42.446043165467628</v>
+        <v>50.359712230215827</v>
       </c>
       <c r="F110" s="11">
-        <v>65.467625899280577</v>
+        <v>78.417266187050359</v>
       </c>
       <c r="G110" s="11">
-        <v>84.172661870503589</v>
+        <v>95.683453237410077</v>
       </c>
       <c r="H110" s="11">
-        <v>92.086330935251809</v>
+        <v>98.561151079136692</v>
       </c>
       <c r="I110" s="11">
-        <v>96.402877697841731</v>
+        <v>99.280575539568346</v>
       </c>
       <c r="J110" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="15">
@@ -3644,7 +3657,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>20</v>
       </c>
@@ -3655,28 +3668,28 @@
         <v>382</v>
       </c>
       <c r="D112" s="13">
-        <v>1.8738349847934856</v>
+        <v>1.8643240605173255</v>
       </c>
       <c r="E112" s="11">
-        <v>38.219895287958117</v>
+        <v>50.523560209424076</v>
       </c>
       <c r="F112" s="11">
-        <v>72.513089005235599</v>
+        <v>82.722513089005233</v>
       </c>
       <c r="G112" s="11">
-        <v>91.8848167539267</v>
+        <v>98.167539267015698</v>
       </c>
       <c r="H112" s="11">
-        <v>97.643979057591622</v>
+        <v>99.214659685863865</v>
       </c>
       <c r="I112" s="11">
-        <v>99.738219895287955</v>
+        <v>100</v>
       </c>
       <c r="J112" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="15">
@@ -3704,7 +3717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>20</v>
       </c>
@@ -3715,28 +3728,28 @@
         <v>521</v>
       </c>
       <c r="D114" s="13">
-        <v>1.4370035304501323</v>
+        <v>1.4291592374159923</v>
       </c>
       <c r="E114" s="11">
-        <v>39.347408829174661</v>
+        <v>50.479846449136275</v>
       </c>
       <c r="F114" s="11">
-        <v>70.633397312859884</v>
+        <v>81.573896353166987</v>
       </c>
       <c r="G114" s="11">
-        <v>89.827255278310929</v>
+        <v>97.504798464491358</v>
       </c>
       <c r="H114" s="11">
-        <v>96.1612284069098</v>
+        <v>99.04030710172745</v>
       </c>
       <c r="I114" s="11">
-        <v>98.848368522072931</v>
+        <v>99.808061420345481</v>
       </c>
       <c r="J114" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="15">
@@ -3764,7 +3777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="15"/>
@@ -3776,7 +3789,7 @@
       <c r="I116" s="16"/>
       <c r="J116" s="17"/>
     </row>
-    <row r="117" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>37</v>
       </c>
@@ -3808,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="15">
@@ -3836,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>20</v>
       </c>
@@ -3868,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="15">
@@ -3896,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>20</v>
       </c>
@@ -3928,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="15">
@@ -3956,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="15"/>
@@ -3968,7 +3981,7 @@
       <c r="I123" s="16"/>
       <c r="J123" s="17"/>
     </row>
-    <row r="124" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>38</v>
       </c>
@@ -3979,28 +3992,28 @@
         <v>1082</v>
       </c>
       <c r="D124" s="13">
-        <v>6.8178954001260239</v>
+        <v>6.7773253993109934</v>
       </c>
       <c r="E124" s="11">
-        <v>19.500924214417743</v>
+        <v>28.096118299445472</v>
       </c>
       <c r="F124" s="11">
-        <v>47.504621072088725</v>
+        <v>61.552680221811464</v>
       </c>
       <c r="G124" s="11">
-        <v>72.273567467652498</v>
+        <v>89.186691312384468</v>
       </c>
       <c r="H124" s="11">
-        <v>87.338262476894641</v>
+        <v>97.966728280961178</v>
       </c>
       <c r="I124" s="11">
-        <v>94.547134935304982</v>
+        <v>99.722735674676528</v>
       </c>
       <c r="J124" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="15">
@@ -4028,7 +4041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>20</v>
       </c>
@@ -4039,28 +4052,28 @@
         <v>1286</v>
       </c>
       <c r="D126" s="13">
-        <v>6.3082507603257136</v>
+        <v>6.2762323084431433</v>
       </c>
       <c r="E126" s="11">
-        <v>35.381026438569208</v>
+        <v>45.645412130637638</v>
       </c>
       <c r="F126" s="11">
-        <v>64.074650077760495</v>
+        <v>75.349922239502334</v>
       </c>
       <c r="G126" s="11">
-        <v>83.35925349922239</v>
+        <v>94.867807153965785</v>
       </c>
       <c r="H126" s="11">
-        <v>94.090202177293932</v>
+        <v>99.377916018662518</v>
       </c>
       <c r="I126" s="11">
-        <v>98.67807153965785</v>
+        <v>100</v>
       </c>
       <c r="J126" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="15">
@@ -4088,7 +4101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>20</v>
       </c>
@@ -4099,28 +4112,28 @@
         <v>2368</v>
       </c>
       <c r="D128" s="13">
-        <v>6.5313327449249776</v>
+        <v>6.4956796049924561</v>
       </c>
       <c r="E128" s="11">
-        <v>28.125</v>
+        <v>37.626689189189186</v>
       </c>
       <c r="F128" s="11">
-        <v>56.503378378378379</v>
+        <v>69.045608108108098</v>
       </c>
       <c r="G128" s="11">
-        <v>78.293918918918919</v>
+        <v>92.271959459459467</v>
       </c>
       <c r="H128" s="11">
-        <v>91.005067567567565</v>
+        <v>98.733108108108098</v>
       </c>
       <c r="I128" s="11">
-        <v>96.790540540540533</v>
+        <v>99.873310810810807</v>
       </c>
       <c r="J128" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="15">
@@ -4148,7 +4161,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="15"/>
@@ -4160,7 +4173,7 @@
       <c r="I130" s="16"/>
       <c r="J130" s="17"/>
     </row>
-    <row r="131" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>39</v>
       </c>
@@ -4171,19 +4184,19 @@
         <v>60</v>
       </c>
       <c r="D131" s="13">
-        <v>0.3780718336483932</v>
+        <v>0.37582211086752271</v>
       </c>
       <c r="E131" s="11">
-        <v>46.666666666666664</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="F131" s="11">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G131" s="11">
-        <v>91.666666666666657</v>
+        <v>100</v>
       </c>
       <c r="H131" s="11">
-        <v>96.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="I131" s="11">
         <v>100</v>
@@ -4192,7 +4205,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="15">
@@ -4220,7 +4233,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>20</v>
       </c>
@@ -4231,16 +4244,16 @@
         <v>89</v>
       </c>
       <c r="D133" s="13">
-        <v>0.43657411949377023</v>
+        <v>0.4343582235236701</v>
       </c>
       <c r="E133" s="11">
-        <v>40.449438202247187</v>
+        <v>50.561797752808992</v>
       </c>
       <c r="F133" s="11">
-        <v>76.404494382022463</v>
+        <v>86.516853932584269</v>
       </c>
       <c r="G133" s="11">
-        <v>94.382022471910105</v>
+        <v>100</v>
       </c>
       <c r="H133" s="11">
         <v>100</v>
@@ -4252,7 +4265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="15">
@@ -4280,7 +4293,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>20</v>
       </c>
@@ -4291,19 +4304,19 @@
         <v>149</v>
       </c>
       <c r="D135" s="13">
-        <v>0.41096646072374227</v>
+        <v>0.40872308325332601</v>
       </c>
       <c r="E135" s="11">
-        <v>42.95302013422819</v>
+        <v>53.020134228187921</v>
       </c>
       <c r="F135" s="11">
-        <v>75.838926174496649</v>
+        <v>85.90604026845638</v>
       </c>
       <c r="G135" s="11">
-        <v>93.288590604026851</v>
+        <v>100</v>
       </c>
       <c r="H135" s="11">
-        <v>98.65771812080537</v>
+        <v>100</v>
       </c>
       <c r="I135" s="11">
         <v>100</v>
@@ -4312,7 +4325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="15">
@@ -4340,7 +4353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="15"/>
@@ -4352,7 +4365,7 @@
       <c r="I137" s="16"/>
       <c r="J137" s="17"/>
     </row>
-    <row r="138" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>40</v>
       </c>
@@ -4360,31 +4373,31 @@
         <v>19</v>
       </c>
       <c r="C138" s="9">
-        <v>1323</v>
+        <v>1332</v>
       </c>
       <c r="D138" s="13">
-        <v>8.33648393194707</v>
+        <v>8.3432508612590031</v>
       </c>
       <c r="E138" s="11">
-        <v>17.687074829931973</v>
+        <v>30.03003003003003</v>
       </c>
       <c r="F138" s="11">
-        <v>44.520030234315946</v>
+        <v>65.690690690690687</v>
       </c>
       <c r="G138" s="11">
-        <v>71.806500377928955</v>
+        <v>90.24024024024024</v>
       </c>
       <c r="H138" s="11">
-        <v>87.603930461073318</v>
+        <v>98.273273273273276</v>
       </c>
       <c r="I138" s="11">
-        <v>94.633408919123212</v>
+        <v>99.849849849849846</v>
       </c>
       <c r="J138" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="15">
@@ -4412,7 +4425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>20</v>
       </c>
@@ -4420,31 +4433,31 @@
         <v>21</v>
       </c>
       <c r="C140" s="9">
-        <v>1291</v>
+        <v>1298</v>
       </c>
       <c r="D140" s="13">
-        <v>6.3327773962523297</v>
+        <v>6.3347974621766712</v>
       </c>
       <c r="E140" s="11">
-        <v>27.730441518202941</v>
+        <v>38.674884437596305</v>
       </c>
       <c r="F140" s="11">
-        <v>55.305964368706427</v>
+        <v>72.419106317411391</v>
       </c>
       <c r="G140" s="11">
-        <v>78.311386522075907</v>
+        <v>93.143297380585523</v>
       </c>
       <c r="H140" s="11">
-        <v>90.085205267234699</v>
+        <v>98.613251155624042</v>
       </c>
       <c r="I140" s="11">
-        <v>96.127033307513557</v>
+        <v>99.306625577812014</v>
       </c>
       <c r="J140" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="15">
@@ -4472,7 +4485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>20</v>
       </c>
@@ -4480,31 +4493,31 @@
         <v>22</v>
       </c>
       <c r="C142" s="9">
-        <v>2614</v>
+        <v>2630</v>
       </c>
       <c r="D142" s="13">
-        <v>7.2098411297440421</v>
+        <v>7.2143738856123987</v>
       </c>
       <c r="E142" s="11">
-        <v>22.647283856159142</v>
+        <v>34.29657794676806</v>
       </c>
       <c r="F142" s="11">
-        <v>49.846977811782708</v>
+        <v>69.01140684410646</v>
       </c>
       <c r="G142" s="11">
-        <v>75.01912777352716</v>
+        <v>91.673003802281372</v>
       </c>
       <c r="H142" s="11">
-        <v>88.829380260137725</v>
+        <v>98.441064638783274</v>
       </c>
       <c r="I142" s="11">
-        <v>95.371078806426937</v>
+        <v>99.581749049429661</v>
       </c>
       <c r="J142" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="15">
@@ -4532,7 +4545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="15"/>
@@ -4544,7 +4557,7 @@
       <c r="I144" s="16"/>
       <c r="J144" s="17"/>
     </row>
-    <row r="145" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>41</v>
       </c>
@@ -4555,28 +4568,28 @@
         <v>682</v>
       </c>
       <c r="D145" s="13">
-        <v>4.2974165091367356</v>
+        <v>4.2718446601941746</v>
       </c>
       <c r="E145" s="11">
-        <v>15.102639296187684</v>
+        <v>27.126099706744867</v>
       </c>
       <c r="F145" s="11">
-        <v>38.123167155425222</v>
+        <v>61.143695014662761</v>
       </c>
       <c r="G145" s="11">
-        <v>67.15542521994135</v>
+        <v>87.976539589442808</v>
       </c>
       <c r="H145" s="11">
-        <v>84.457478005865099</v>
+        <v>96.187683284457478</v>
       </c>
       <c r="I145" s="11">
-        <v>94.721407624633429</v>
+        <v>99.853372434017601</v>
       </c>
       <c r="J145" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="15">
@@ -4604,7 +4617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>20</v>
       </c>
@@ -4615,28 +4628,28 @@
         <v>376</v>
       </c>
       <c r="D147" s="13">
-        <v>1.8444030216815461</v>
+        <v>1.8350414836505613</v>
       </c>
       <c r="E147" s="11">
-        <v>27.393617021276594</v>
+        <v>43.351063829787236</v>
       </c>
       <c r="F147" s="11">
-        <v>50</v>
+        <v>68.61702127659575</v>
       </c>
       <c r="G147" s="11">
-        <v>73.936170212765958</v>
+        <v>92.553191489361694</v>
       </c>
       <c r="H147" s="11">
-        <v>88.297872340425528</v>
+        <v>97.340425531914903</v>
       </c>
       <c r="I147" s="11">
-        <v>97.074468085106375</v>
+        <v>99.7340425531915</v>
       </c>
       <c r="J147" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="15">
@@ -4664,7 +4677,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>20</v>
       </c>
@@ -4675,28 +4688,28 @@
         <v>1058</v>
       </c>
       <c r="D149" s="13">
-        <v>2.9181376875551632</v>
+        <v>2.9022082018927442</v>
       </c>
       <c r="E149" s="11">
-        <v>19.47069943289225</v>
+        <v>32.892249527410208</v>
       </c>
       <c r="F149" s="11">
-        <v>42.344045368620037</v>
+        <v>63.799621928166353</v>
       </c>
       <c r="G149" s="11">
-        <v>69.565217391304344</v>
+        <v>89.603024574669192</v>
       </c>
       <c r="H149" s="11">
-        <v>85.822306238185249</v>
+        <v>96.597353497164463</v>
       </c>
       <c r="I149" s="11">
-        <v>95.557655954631386</v>
+        <v>99.810964083175804</v>
       </c>
       <c r="J149" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="15">
@@ -4724,7 +4737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="15"/>
@@ -4736,7 +4749,7 @@
       <c r="I151" s="16"/>
       <c r="J151" s="17"/>
     </row>
-    <row r="152" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>42</v>
       </c>
@@ -4744,31 +4757,31 @@
         <v>19</v>
       </c>
       <c r="C152" s="9">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="D152" s="13">
-        <v>0.69313169502205418</v>
+        <v>1.1212026307547762</v>
       </c>
       <c r="E152" s="11">
-        <v>38.181818181818187</v>
+        <v>54.748603351955303</v>
       </c>
       <c r="F152" s="11">
-        <v>69.090909090909093</v>
+        <v>81.564245810055866</v>
       </c>
       <c r="G152" s="11">
-        <v>80</v>
+        <v>95.530726256983243</v>
       </c>
       <c r="H152" s="11">
-        <v>92.72727272727272</v>
+        <v>97.765363128491629</v>
       </c>
       <c r="I152" s="11">
-        <v>96.36363636363636</v>
+        <v>98.882681564245814</v>
       </c>
       <c r="J152" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="15">
@@ -4796,7 +4809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>20</v>
       </c>
@@ -4804,31 +4817,31 @@
         <v>21</v>
       </c>
       <c r="C154" s="9">
-        <v>251</v>
+        <v>326</v>
       </c>
       <c r="D154" s="13">
-        <v>1.2312371235161386</v>
+        <v>1.5910200097608591</v>
       </c>
       <c r="E154" s="11">
-        <v>64.940239043824704</v>
+        <v>71.779141104294482</v>
       </c>
       <c r="F154" s="11">
-        <v>82.071713147410364</v>
+        <v>90.490797546012274</v>
       </c>
       <c r="G154" s="11">
-        <v>93.625498007968119</v>
+        <v>98.159509202453989</v>
       </c>
       <c r="H154" s="11">
-        <v>98.007968127490045</v>
+        <v>99.079754601226995</v>
       </c>
       <c r="I154" s="11">
-        <v>99.203187250996024</v>
+        <v>100</v>
       </c>
       <c r="J154" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="15">
@@ -4856,7 +4869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>20</v>
       </c>
@@ -4864,31 +4877,31 @@
         <v>22</v>
       </c>
       <c r="C156" s="9">
-        <v>361</v>
+        <v>505</v>
       </c>
       <c r="D156" s="13">
-        <v>0.99569726390114732</v>
+        <v>1.3852695103552324</v>
       </c>
       <c r="E156" s="11">
-        <v>56.786703601108037</v>
+        <v>65.742574257425744</v>
       </c>
       <c r="F156" s="11">
-        <v>78.1163434903047</v>
+        <v>87.32673267326733</v>
       </c>
       <c r="G156" s="11">
-        <v>89.473684210526315</v>
+        <v>97.227722772277218</v>
       </c>
       <c r="H156" s="11">
-        <v>96.39889196675901</v>
+        <v>98.613861386138609</v>
       </c>
       <c r="I156" s="11">
-        <v>98.337950138504155</v>
+        <v>99.603960396039611</v>
       </c>
       <c r="J156" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="15">
@@ -4916,7 +4929,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="18"/>
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
@@ -4928,9 +4941,9 @@
       <c r="I158" s="18"/>
       <c r="J158" s="18"/>
     </row>
-    <row r="159" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>19</v>
@@ -4960,10 +4973,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
-      <c r="C160" s="15" t="s">
+      <c r="C160" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D160" s="17">
@@ -4988,7 +5001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>20</v>
       </c>
@@ -5020,10 +5033,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
-      <c r="C162" s="15" t="s">
+      <c r="C162" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D162" s="17">
@@ -5048,7 +5061,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>20</v>
       </c>
@@ -5080,11 +5093,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
-      <c r="C164" s="15">
-        <v>2</v>
+      <c r="C164" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="D164" s="17">
         <v>5.2536184296934508E-3</v>
@@ -5108,7 +5121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="15"/>
@@ -5120,7 +5133,7 @@
       <c r="I165" s="16"/>
       <c r="J165" s="17"/>
     </row>
-    <row r="166" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>43</v>
       </c>
@@ -5131,28 +5144,28 @@
         <v>2185</v>
       </c>
       <c r="D166" s="13">
-        <v>13.768115942028986</v>
+        <v>13.68618853742562</v>
       </c>
       <c r="E166" s="11">
-        <v>40.45766590389016</v>
+        <v>47.185354691075517</v>
       </c>
       <c r="F166" s="11">
-        <v>64.622425629290618</v>
+        <v>71.990846681922193</v>
       </c>
       <c r="G166" s="11">
-        <v>80.091533180778029</v>
+        <v>88.329519450800916</v>
       </c>
       <c r="H166" s="11">
-        <v>89.519450800915337</v>
+        <v>95.240274599542332</v>
       </c>
       <c r="I166" s="11">
-        <v>94.324942791762012</v>
+        <v>98.993135011441652</v>
       </c>
       <c r="J166" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="15">
@@ -5180,7 +5193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>20</v>
       </c>
@@ -5191,28 +5204,28 @@
         <v>1804</v>
       </c>
       <c r="D168" s="13">
-        <v>8.8492102423231636</v>
+        <v>8.8042947779404592</v>
       </c>
       <c r="E168" s="11">
-        <v>48.835920177383592</v>
+        <v>56.651884700665192</v>
       </c>
       <c r="F168" s="11">
-        <v>73.226164079822624</v>
+        <v>80.487804878048792</v>
       </c>
       <c r="G168" s="11">
-        <v>87.971175166297115</v>
+        <v>94.068736141906868</v>
       </c>
       <c r="H168" s="11">
-        <v>95.177383592017733</v>
+        <v>98.835920177383599</v>
       </c>
       <c r="I168" s="11">
-        <v>97.560975609756099</v>
+        <v>99.77827050997783</v>
       </c>
       <c r="J168" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="15">
@@ -5240,7 +5253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>20</v>
       </c>
@@ -5251,28 +5264,28 @@
         <v>3989</v>
       </c>
       <c r="D170" s="13">
-        <v>11.002316857899382</v>
+        <v>10.942257577835687</v>
       </c>
       <c r="E170" s="11">
-        <v>44.24667836550514</v>
+        <v>51.466532965655553</v>
       </c>
       <c r="F170" s="11">
-        <v>68.51341188267736</v>
+        <v>75.833542241163201</v>
       </c>
       <c r="G170" s="11">
-        <v>83.655051391326154</v>
+        <v>90.925043870644274</v>
       </c>
       <c r="H170" s="11">
-        <v>92.078215091501619</v>
+        <v>96.866382552018052</v>
       </c>
       <c r="I170" s="11">
-        <v>95.78841814991226</v>
+        <v>99.348207570819753</v>
       </c>
       <c r="J170" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="15">
@@ -5300,7 +5313,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="15"/>
@@ -5312,7 +5325,7 @@
       <c r="I172" s="16"/>
       <c r="J172" s="17"/>
     </row>
-    <row r="173" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>44</v>
       </c>
@@ -5323,16 +5336,16 @@
         <v>135</v>
       </c>
       <c r="D173" s="13">
-        <v>0.85066162570888471</v>
+        <v>0.84559974945192606</v>
       </c>
       <c r="E173" s="11">
-        <v>80</v>
+        <v>90.370370370370367</v>
       </c>
       <c r="F173" s="11">
-        <v>95.555555555555557</v>
+        <v>97.037037037037038</v>
       </c>
       <c r="G173" s="11">
-        <v>97.037037037037038</v>
+        <v>100</v>
       </c>
       <c r="H173" s="11">
         <v>100</v>
@@ -5344,7 +5357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="15">
@@ -5372,7 +5385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>20</v>
       </c>
@@ -5383,13 +5396,13 @@
         <v>47</v>
       </c>
       <c r="D175" s="13">
-        <v>0.23055037771019327</v>
+        <v>0.22938018545632016</v>
       </c>
       <c r="E175" s="11">
-        <v>78.723404255319153</v>
+        <v>80.851063829787222</v>
       </c>
       <c r="F175" s="11">
-        <v>91.489361702127653</v>
+        <v>93.61702127659575</v>
       </c>
       <c r="G175" s="11">
         <v>100</v>
@@ -5404,7 +5417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="15">
@@ -5432,7 +5445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>20</v>
       </c>
@@ -5443,16 +5456,16 @@
         <v>182</v>
       </c>
       <c r="D177" s="13">
-        <v>0.50198587819947049</v>
+        <v>0.49924564531614324</v>
       </c>
       <c r="E177" s="11">
-        <v>79.670329670329664</v>
+        <v>87.912087912087912</v>
       </c>
       <c r="F177" s="11">
-        <v>94.505494505494497</v>
+        <v>96.15384615384616</v>
       </c>
       <c r="G177" s="11">
-        <v>97.802197802197796</v>
+        <v>100</v>
       </c>
       <c r="H177" s="11">
         <v>100</v>
@@ -5464,7 +5477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="15">
@@ -5492,7 +5505,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="15"/>
@@ -5504,7 +5517,7 @@
       <c r="I179" s="16"/>
       <c r="J179" s="17"/>
     </row>
-    <row r="180" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>45</v>
       </c>
@@ -5512,31 +5525,31 @@
         <v>19</v>
       </c>
       <c r="C180" s="9">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="D180" s="13">
-        <v>3.4341524889729045</v>
+        <v>3.4763545255245853</v>
       </c>
       <c r="E180" s="11">
-        <v>14.495412844036698</v>
+        <v>21.621621621621621</v>
       </c>
       <c r="F180" s="11">
-        <v>48.073394495412849</v>
+        <v>63.423423423423422</v>
       </c>
       <c r="G180" s="11">
-        <v>78.899082568807344</v>
+        <v>92.072072072072075</v>
       </c>
       <c r="H180" s="11">
-        <v>93.027522935779814</v>
+        <v>97.657657657657666</v>
       </c>
       <c r="I180" s="11">
-        <v>97.9816513761468</v>
+        <v>99.459459459459467</v>
       </c>
       <c r="J180" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="15">
@@ -5564,7 +5577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>20</v>
       </c>
@@ -5572,31 +5585,31 @@
         <v>21</v>
       </c>
       <c r="C182" s="9">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D182" s="13">
-        <v>2.5262435004414794</v>
+        <v>2.5427037579306981</v>
       </c>
       <c r="E182" s="11">
-        <v>21.16504854368932</v>
+        <v>28.598848368522074</v>
       </c>
       <c r="F182" s="11">
-        <v>55.145631067961162</v>
+        <v>66.026871401151638</v>
       </c>
       <c r="G182" s="11">
-        <v>84.077669902912618</v>
+        <v>92.322456813819571</v>
       </c>
       <c r="H182" s="11">
-        <v>96.116504854368941</v>
+        <v>98.656429942418427</v>
       </c>
       <c r="I182" s="11">
-        <v>99.805825242718456</v>
+        <v>99.808061420345481</v>
       </c>
       <c r="J182" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="15">
@@ -5624,7 +5637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>20</v>
       </c>
@@ -5632,31 +5645,31 @@
         <v>22</v>
       </c>
       <c r="C184" s="9">
-        <v>1060</v>
+        <v>1076</v>
       </c>
       <c r="D184" s="13">
-        <v>2.9236540158870254</v>
+        <v>2.9515841448360991</v>
       </c>
       <c r="E184" s="11">
-        <v>17.735849056603772</v>
+        <v>25</v>
       </c>
       <c r="F184" s="11">
-        <v>51.509433962264154</v>
+        <v>64.684014869888472</v>
       </c>
       <c r="G184" s="11">
-        <v>81.415094339622641</v>
+        <v>92.193308550185876</v>
       </c>
       <c r="H184" s="11">
-        <v>94.528301886792448</v>
+        <v>98.141263940520446</v>
       </c>
       <c r="I184" s="11">
-        <v>98.867924528301884</v>
+        <v>99.628252788104092</v>
       </c>
       <c r="J184" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="15">
@@ -5684,7 +5697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="15"/>
@@ -5696,7 +5709,7 @@
       <c r="I186" s="16"/>
       <c r="J186" s="17"/>
     </row>
-    <row r="187" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>46</v>
       </c>
@@ -5707,19 +5720,19 @@
         <v>101</v>
       </c>
       <c r="D187" s="13">
-        <v>0.63642091997479522</v>
+        <v>0.63263388662699649</v>
       </c>
       <c r="E187" s="11">
-        <v>34.653465346534652</v>
+        <v>44.554455445544555</v>
       </c>
       <c r="F187" s="11">
-        <v>71.287128712871279</v>
+        <v>83.168316831683171</v>
       </c>
       <c r="G187" s="11">
-        <v>90.099009900990097</v>
+        <v>99.009900990099013</v>
       </c>
       <c r="H187" s="11">
-        <v>97.029702970297024</v>
+        <v>100</v>
       </c>
       <c r="I187" s="11">
         <v>100</v>
@@ -5728,7 +5741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="15">
@@ -5756,7 +5769,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>20</v>
       </c>
@@ -5764,22 +5777,22 @@
         <v>21</v>
       </c>
       <c r="C189" s="9">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D189" s="13">
-        <v>1.1429412341803198</v>
+        <v>1.1420204978038067</v>
       </c>
       <c r="E189" s="11">
-        <v>36.480686695278969</v>
+        <v>49.572649572649574</v>
       </c>
       <c r="F189" s="11">
-        <v>73.819742489270396</v>
+        <v>84.615384615384613</v>
       </c>
       <c r="G189" s="11">
-        <v>94.849785407725321</v>
+        <v>97.863247863247864</v>
       </c>
       <c r="H189" s="11">
-        <v>99.570815450643778</v>
+        <v>100</v>
       </c>
       <c r="I189" s="11">
         <v>100</v>
@@ -5788,7 +5801,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="15">
@@ -5816,7 +5829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>20</v>
       </c>
@@ -5824,22 +5837,22 @@
         <v>22</v>
       </c>
       <c r="C191" s="9">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D191" s="13">
-        <v>0.92122683142100614</v>
+        <v>0.91894116033465911</v>
       </c>
       <c r="E191" s="11">
-        <v>35.928143712574851</v>
+        <v>48.059701492537314</v>
       </c>
       <c r="F191" s="11">
-        <v>73.053892215568865</v>
+        <v>84.179104477611943</v>
       </c>
       <c r="G191" s="11">
-        <v>93.41317365269461</v>
+        <v>98.208955223880594</v>
       </c>
       <c r="H191" s="11">
-        <v>98.802395209580837</v>
+        <v>100</v>
       </c>
       <c r="I191" s="11">
         <v>100</v>
@@ -5848,7 +5861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="15">
@@ -5876,7 +5889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="15"/>
@@ -5888,7 +5901,7 @@
       <c r="I193" s="16"/>
       <c r="J193" s="17"/>
     </row>
-    <row r="194" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>47</v>
       </c>
@@ -5899,19 +5912,19 @@
         <v>78</v>
       </c>
       <c r="D194" s="13">
-        <v>0.49149338374291113</v>
+        <v>0.48856874412777951</v>
       </c>
       <c r="E194" s="11">
-        <v>15.384615384615385</v>
+        <v>28.205128205128204</v>
       </c>
       <c r="F194" s="11">
-        <v>55.128205128205131</v>
+        <v>69.230769230769226</v>
       </c>
       <c r="G194" s="11">
-        <v>93.589743589743591</v>
+        <v>97.435897435897431</v>
       </c>
       <c r="H194" s="11">
-        <v>98.71794871794873</v>
+        <v>100</v>
       </c>
       <c r="I194" s="11">
         <v>100</v>
@@ -5920,7 +5933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="15">
@@ -5948,7 +5961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>20</v>
       </c>
@@ -5959,19 +5972,19 @@
         <v>175</v>
       </c>
       <c r="D196" s="13">
-        <v>0.85843225743157059</v>
+        <v>0.85407515861395811</v>
       </c>
       <c r="E196" s="11">
-        <v>22.285714285714285</v>
+        <v>32.571428571428577</v>
       </c>
       <c r="F196" s="11">
-        <v>54.857142857142861</v>
+        <v>73.142857142857139</v>
       </c>
       <c r="G196" s="11">
-        <v>85.714285714285708</v>
+        <v>95.428571428571431</v>
       </c>
       <c r="H196" s="11">
-        <v>97.142857142857139</v>
+        <v>98.857142857142861</v>
       </c>
       <c r="I196" s="11">
         <v>98.857142857142861</v>
@@ -5980,7 +5993,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="15">
@@ -6008,7 +6021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>20</v>
       </c>
@@ -6019,19 +6032,19 @@
         <v>253</v>
       </c>
       <c r="D198" s="13">
-        <v>0.6978155339805826</v>
+        <v>0.694006309148265</v>
       </c>
       <c r="E198" s="11">
-        <v>20.158102766798418</v>
+        <v>31.225296442687743</v>
       </c>
       <c r="F198" s="11">
-        <v>54.940711462450601</v>
+        <v>71.936758893280626</v>
       </c>
       <c r="G198" s="11">
-        <v>88.142292490118578</v>
+        <v>96.047430830039531</v>
       </c>
       <c r="H198" s="11">
-        <v>97.628458498023718</v>
+        <v>99.209486166007906</v>
       </c>
       <c r="I198" s="11">
         <v>99.209486166007906</v>
@@ -6040,7 +6053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="15">
@@ -6068,7 +6081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="15"/>
@@ -6080,7 +6093,7 @@
       <c r="I200" s="16"/>
       <c r="J200" s="17"/>
     </row>
-    <row r="201" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>48</v>
       </c>
@@ -6091,28 +6104,28 @@
         <v>364</v>
       </c>
       <c r="D201" s="13">
-        <v>2.293635790800252</v>
+        <v>2.2799874725963045</v>
       </c>
       <c r="E201" s="11">
-        <v>20.87912087912088</v>
+        <v>32.967032967032964</v>
       </c>
       <c r="F201" s="11">
-        <v>56.593406593406591</v>
+        <v>70.879120879120876</v>
       </c>
       <c r="G201" s="11">
-        <v>79.945054945054949</v>
+        <v>92.582417582417591</v>
       </c>
       <c r="H201" s="11">
-        <v>93.681318681318686</v>
+        <v>98.901098901098905</v>
       </c>
       <c r="I201" s="11">
-        <v>97.802197802197796</v>
+        <v>100</v>
       </c>
       <c r="J201" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="15">
@@ -6140,7 +6153,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>20</v>
       </c>
@@ -6151,28 +6164,28 @@
         <v>244</v>
       </c>
       <c r="D203" s="13">
-        <v>1.1968998332188758</v>
+        <v>1.1908247925817472</v>
       </c>
       <c r="E203" s="11">
-        <v>47.950819672131146</v>
+        <v>59.426229508196727</v>
       </c>
       <c r="F203" s="11">
-        <v>76.229508196721312</v>
+        <v>87.704918032786878</v>
       </c>
       <c r="G203" s="11">
-        <v>88.52459016393442</v>
+        <v>98.360655737704917</v>
       </c>
       <c r="H203" s="11">
-        <v>96.311475409836063</v>
+        <v>99.180327868852459</v>
       </c>
       <c r="I203" s="11">
-        <v>99.590163934426229</v>
+        <v>100</v>
       </c>
       <c r="J203" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="15">
@@ -6200,7 +6213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>20</v>
       </c>
@@ -6211,28 +6224,28 @@
         <v>608</v>
       </c>
       <c r="D205" s="13">
-        <v>1.6769638128861428</v>
+        <v>1.6678096283088739</v>
       </c>
       <c r="E205" s="11">
-        <v>31.743421052631575</v>
+        <v>43.585526315789473</v>
       </c>
       <c r="F205" s="11">
-        <v>64.473684210526315</v>
+        <v>77.631578947368425</v>
       </c>
       <c r="G205" s="11">
-        <v>83.38815789473685</v>
+        <v>94.901315789473685</v>
       </c>
       <c r="H205" s="11">
-        <v>94.73684210526315</v>
+        <v>99.01315789473685</v>
       </c>
       <c r="I205" s="11">
-        <v>98.51973684210526</v>
+        <v>100</v>
       </c>
       <c r="J205" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="15">
@@ -6260,7 +6273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="18"/>
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
@@ -6272,7 +6285,7 @@
       <c r="I207" s="18"/>
       <c r="J207" s="18"/>
     </row>
-    <row r="208" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>49</v>
       </c>
@@ -6283,28 +6296,28 @@
         <v>1242</v>
       </c>
       <c r="D208" s="13">
-        <v>7.8260869565217401</v>
+        <v>7.7795176949577201</v>
       </c>
       <c r="E208" s="11">
-        <v>31.07890499194847</v>
+        <v>40.499194847020938</v>
       </c>
       <c r="F208" s="11">
-        <v>57.809983896940423</v>
+        <v>69.16264090177134</v>
       </c>
       <c r="G208" s="11">
-        <v>75.60386473429952</v>
+        <v>87.037037037037038</v>
       </c>
       <c r="H208" s="11">
-        <v>86.151368760064415</v>
+        <v>95.491143317230282</v>
       </c>
       <c r="I208" s="11">
-        <v>92.351046698872779</v>
+        <v>98.389694041867955</v>
       </c>
       <c r="J208" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="15">
@@ -6332,7 +6345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>20</v>
       </c>
@@ -6343,28 +6356,28 @@
         <v>523</v>
       </c>
       <c r="D210" s="13">
-        <v>2.5654861179240656</v>
+        <v>2.5524646168862861</v>
       </c>
       <c r="E210" s="11">
-        <v>33.843212237093688</v>
+        <v>46.462715105162523</v>
       </c>
       <c r="F210" s="11">
-        <v>58.508604206500955</v>
+        <v>73.040152963671119</v>
       </c>
       <c r="G210" s="11">
-        <v>78.393881453154876</v>
+        <v>91.20458891013385</v>
       </c>
       <c r="H210" s="11">
-        <v>87.571701720841304</v>
+        <v>95.984703632887189</v>
       </c>
       <c r="I210" s="11">
-        <v>94.072657743785854</v>
+        <v>99.235181644359457</v>
       </c>
       <c r="J210" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="15">
@@ -6392,7 +6405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>20</v>
       </c>
@@ -6403,28 +6416,28 @@
         <v>1765</v>
       </c>
       <c r="D212" s="13">
-        <v>4.8681597528684906</v>
+        <v>4.8415855163900696</v>
       </c>
       <c r="E212" s="11">
-        <v>31.89801699716714</v>
+        <v>42.266288951841361</v>
       </c>
       <c r="F212" s="11">
-        <v>58.016997167138804</v>
+        <v>70.31161473087819</v>
       </c>
       <c r="G212" s="11">
-        <v>76.430594900849854</v>
+        <v>88.271954674220964</v>
       </c>
       <c r="H212" s="11">
-        <v>86.572237960339947</v>
+        <v>95.637393767705376</v>
       </c>
       <c r="I212" s="11">
-        <v>92.861189801699723</v>
+        <v>98.640226628895192</v>
       </c>
       <c r="J212" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="15">
@@ -6452,7 +6465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="15"/>
@@ -6464,7 +6477,7 @@
       <c r="I214" s="16"/>
       <c r="J214" s="17"/>
     </row>
-    <row r="215" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>50</v>
       </c>
@@ -6475,28 +6488,28 @@
         <v>682</v>
       </c>
       <c r="D215" s="13">
-        <v>4.2974165091367356</v>
+        <v>4.2718446601941746</v>
       </c>
       <c r="E215" s="11">
-        <v>21.114369501466275</v>
+        <v>32.84457478005865</v>
       </c>
       <c r="F215" s="11">
-        <v>52.932551319648091</v>
+        <v>68.475073313782985</v>
       </c>
       <c r="G215" s="11">
-        <v>77.272727272727266</v>
+        <v>92.082111436950143</v>
       </c>
       <c r="H215" s="11">
-        <v>90.469208211143695</v>
+        <v>98.387096774193552</v>
       </c>
       <c r="I215" s="11">
-        <v>95.894428152492679</v>
+        <v>99.266862170087975</v>
       </c>
       <c r="J215" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="15">
@@ -6524,7 +6537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>20</v>
       </c>
@@ -6532,31 +6545,31 @@
         <v>21</v>
       </c>
       <c r="C217" s="9">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D217" s="13">
-        <v>3.2669479054252917</v>
+        <v>3.2454856027330408</v>
       </c>
       <c r="E217" s="11">
-        <v>23.423423423423422</v>
+        <v>36.691729323308273</v>
       </c>
       <c r="F217" s="11">
-        <v>55.405405405405403</v>
+        <v>69.774436090225564</v>
       </c>
       <c r="G217" s="11">
-        <v>79.729729729729726</v>
+        <v>91.278195488721806</v>
       </c>
       <c r="H217" s="11">
-        <v>91.591591591591595</v>
+        <v>97.293233082706763</v>
       </c>
       <c r="I217" s="11">
-        <v>96.396396396396398</v>
+        <v>99.097744360902254</v>
       </c>
       <c r="J217" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="15">
@@ -6584,7 +6597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>20</v>
       </c>
@@ -6592,31 +6605,31 @@
         <v>22</v>
       </c>
       <c r="C219" s="9">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D219" s="13">
-        <v>3.7180052956751988</v>
+        <v>3.6949663969277196</v>
       </c>
       <c r="E219" s="11">
-        <v>22.255192878338278</v>
+        <v>34.743875278396438</v>
       </c>
       <c r="F219" s="11">
-        <v>54.154302670623146</v>
+        <v>69.11655530809206</v>
       </c>
       <c r="G219" s="11">
-        <v>78.486646884272986</v>
+        <v>91.685226429101704</v>
       </c>
       <c r="H219" s="11">
-        <v>91.023738872403555</v>
+        <v>97.847067557535254</v>
       </c>
       <c r="I219" s="11">
-        <v>96.142433234421361</v>
+        <v>99.183370452858199</v>
       </c>
       <c r="J219" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="15">
@@ -6644,7 +6657,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="15"/>
@@ -6656,7 +6669,7 @@
       <c r="I221" s="16"/>
       <c r="J221" s="17"/>
     </row>
-    <row r="222" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>51</v>
       </c>
@@ -6667,28 +6680,28 @@
         <v>86</v>
       </c>
       <c r="D222" s="13">
-        <v>0.54190296156269691</v>
+        <v>0.53867835891011584</v>
       </c>
       <c r="E222" s="11">
-        <v>11.627906976744185</v>
+        <v>20.930232558139537</v>
       </c>
       <c r="F222" s="11">
-        <v>26.744186046511626</v>
+        <v>43.02325581395349</v>
       </c>
       <c r="G222" s="11">
-        <v>47.674418604651166</v>
+        <v>69.767441860465112</v>
       </c>
       <c r="H222" s="11">
-        <v>69.767441860465112</v>
+        <v>86.04651162790698</v>
       </c>
       <c r="I222" s="11">
-        <v>83.720930232558146</v>
+        <v>95.348837209302332</v>
       </c>
       <c r="J222" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="15">
@@ -6716,7 +6729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>20</v>
       </c>
@@ -6727,28 +6740,28 @@
         <v>422</v>
       </c>
       <c r="D224" s="13">
-        <v>2.0700480722064163</v>
+        <v>2.0595412396290871</v>
       </c>
       <c r="E224" s="11">
-        <v>20.142180094786731</v>
+        <v>28.672985781990523</v>
       </c>
       <c r="F224" s="11">
-        <v>42.18009478672986</v>
+        <v>59.004739336492896</v>
       </c>
       <c r="G224" s="11">
-        <v>62.559241706161139</v>
+        <v>82.227488151658761</v>
       </c>
       <c r="H224" s="11">
-        <v>77.014218009478668</v>
+        <v>93.60189573459715</v>
       </c>
       <c r="I224" s="11">
-        <v>87.677725118483409</v>
+        <v>98.104265402843609</v>
       </c>
       <c r="J224" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="15">
@@ -6776,7 +6789,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>20</v>
       </c>
@@ -6787,28 +6800,28 @@
         <v>508</v>
       </c>
       <c r="D226" s="13">
-        <v>1.4011473962930274</v>
+        <v>1.3934988341791248</v>
       </c>
       <c r="E226" s="11">
-        <v>18.700787401574804</v>
+        <v>27.362204724409452</v>
       </c>
       <c r="F226" s="11">
-        <v>39.566929133858267</v>
+        <v>56.2992125984252</v>
       </c>
       <c r="G226" s="11">
-        <v>60.039370078740163</v>
+        <v>80.118110236220474</v>
       </c>
       <c r="H226" s="11">
-        <v>75.787401574803141</v>
+        <v>92.322834645669289</v>
       </c>
       <c r="I226" s="11">
-        <v>87.00787401574803</v>
+        <v>97.637795275590548</v>
       </c>
       <c r="J226" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="15">
@@ -6836,7 +6849,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="15"/>
@@ -6848,7 +6861,7 @@
       <c r="I228" s="16"/>
       <c r="J228" s="17"/>
     </row>
-    <row r="229" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>52</v>
       </c>
@@ -6859,28 +6872,28 @@
         <v>535</v>
       </c>
       <c r="D229" s="13">
-        <v>3.3711405166981727</v>
+        <v>3.3510804885687437</v>
       </c>
       <c r="E229" s="11">
-        <v>23.925233644859816</v>
+        <v>34.392523364485982</v>
       </c>
       <c r="F229" s="11">
-        <v>52.710280373831772</v>
+        <v>66.728971962616825</v>
       </c>
       <c r="G229" s="11">
-        <v>78.317757009345783</v>
+        <v>92.523364485981304</v>
       </c>
       <c r="H229" s="11">
-        <v>92.523364485981304</v>
+        <v>99.065420560747668</v>
       </c>
       <c r="I229" s="11">
-        <v>97.009345794392516</v>
+        <v>100</v>
       </c>
       <c r="J229" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="15">
@@ -6908,7 +6921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>20</v>
       </c>
@@ -6919,28 +6932,28 @@
         <v>1724</v>
       </c>
       <c r="D231" s="13">
-        <v>8.4567840674973027</v>
+        <v>8.4138604197169364</v>
       </c>
       <c r="E231" s="11">
-        <v>29.698375870069604</v>
+        <v>41.937354988399072</v>
       </c>
       <c r="F231" s="11">
-        <v>60.614849187935036</v>
+        <v>77.146171693735496</v>
       </c>
       <c r="G231" s="11">
-        <v>85.324825986078892</v>
+        <v>95.997679814385151</v>
       </c>
       <c r="H231" s="11">
-        <v>95.823665893271453</v>
+        <v>99.129930394431554</v>
       </c>
       <c r="I231" s="11">
-        <v>98.607888631090489</v>
+        <v>99.767981438515079</v>
       </c>
       <c r="J231" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="15">
@@ -6968,7 +6981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>20</v>
       </c>
@@ -6979,28 +6992,28 @@
         <v>2259</v>
       </c>
       <c r="D233" s="13">
-        <v>6.2306928508384818</v>
+        <v>6.1966808393910302</v>
       </c>
       <c r="E233" s="11">
-        <v>28.331119964586097</v>
+        <v>40.150509074811865</v>
       </c>
       <c r="F233" s="11">
-        <v>58.742806551571491</v>
+        <v>74.679061531651172</v>
       </c>
       <c r="G233" s="11">
-        <v>83.665338645418331</v>
+        <v>95.174856131031433</v>
       </c>
       <c r="H233" s="11">
-        <v>95.042054006197432</v>
+        <v>99.114652501106676</v>
       </c>
       <c r="I233" s="11">
-        <v>98.22930500221338</v>
+        <v>99.822930500221347</v>
       </c>
       <c r="J233" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="15">
@@ -7028,7 +7041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="15"/>
@@ -7040,7 +7053,7 @@
       <c r="I235" s="16"/>
       <c r="J235" s="17"/>
     </row>
-    <row r="236" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>53</v>
       </c>
@@ -7051,28 +7064,28 @@
         <v>155</v>
       </c>
       <c r="D236" s="13">
-        <v>0.97668557025834912</v>
+        <v>0.97087378640776689</v>
       </c>
       <c r="E236" s="11">
-        <v>14.838709677419354</v>
+        <v>23.225806451612904</v>
       </c>
       <c r="F236" s="11">
-        <v>38.70967741935484</v>
+        <v>57.41935483870968</v>
       </c>
       <c r="G236" s="11">
-        <v>64.516129032258064</v>
+        <v>82.58064516129032</v>
       </c>
       <c r="H236" s="11">
-        <v>76.774193548387089</v>
+        <v>91.612903225806448</v>
       </c>
       <c r="I236" s="11">
-        <v>85.806451612903217</v>
+        <v>96.774193548387103</v>
       </c>
       <c r="J236" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="15">
@@ -7100,7 +7113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>20</v>
       </c>
@@ -7111,28 +7124,28 @@
         <v>727</v>
       </c>
       <c r="D238" s="13">
-        <v>3.5661728637300105</v>
+        <v>3.5480722303562717</v>
       </c>
       <c r="E238" s="11">
-        <v>20.770288858321869</v>
+        <v>31.224209078404403</v>
       </c>
       <c r="F238" s="11">
-        <v>45.667125171939475</v>
+        <v>61.760660247592845</v>
       </c>
       <c r="G238" s="11">
-        <v>68.638239339752403</v>
+        <v>89.270976616231096</v>
       </c>
       <c r="H238" s="11">
-        <v>84.456671251719399</v>
+        <v>97.524071526822553</v>
       </c>
       <c r="I238" s="11">
-        <v>91.884456671251726</v>
+        <v>99.174690508940856</v>
       </c>
       <c r="J238" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="15">
@@ -7160,7 +7173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>20</v>
       </c>
@@ -7171,28 +7184,28 @@
         <v>882</v>
       </c>
       <c r="D240" s="13">
-        <v>2.4327007943512795</v>
+        <v>2.4194212042243861</v>
       </c>
       <c r="E240" s="11">
-        <v>19.727891156462583</v>
+        <v>29.818594104308389</v>
       </c>
       <c r="F240" s="11">
-        <v>44.444444444444443</v>
+        <v>60.997732426303855</v>
       </c>
       <c r="G240" s="11">
-        <v>67.913832199546491</v>
+        <v>88.095238095238088</v>
       </c>
       <c r="H240" s="11">
-        <v>83.106575963718825</v>
+        <v>96.48526077097506</v>
       </c>
       <c r="I240" s="11">
-        <v>90.816326530612244</v>
+        <v>98.752834467120181</v>
       </c>
       <c r="J240" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="15">
@@ -7220,7 +7233,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="15"/>
@@ -7232,7 +7245,7 @@
       <c r="I242" s="16"/>
       <c r="J242" s="17"/>
     </row>
-    <row r="243" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>54</v>
       </c>
@@ -7243,19 +7256,19 @@
         <v>222</v>
       </c>
       <c r="D243" s="13">
-        <v>1.3988657844990549</v>
+        <v>1.3905418102098339</v>
       </c>
       <c r="E243" s="11">
-        <v>31.531531531531531</v>
+        <v>50.900900900900901</v>
       </c>
       <c r="F243" s="11">
-        <v>68.468468468468473</v>
+        <v>87.837837837837839</v>
       </c>
       <c r="G243" s="11">
-        <v>92.792792792792795</v>
+        <v>98.648648648648646</v>
       </c>
       <c r="H243" s="11">
-        <v>97.747747747747752</v>
+        <v>99.549549549549553</v>
       </c>
       <c r="I243" s="11">
         <v>100</v>
@@ -7264,7 +7277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="15">
@@ -7292,7 +7305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>20</v>
       </c>
@@ -7303,28 +7316,28 @@
         <v>473</v>
       </c>
       <c r="D245" s="13">
-        <v>2.3202197586579025</v>
+        <v>2.3084431429965835</v>
       </c>
       <c r="E245" s="11">
-        <v>30.232558139534881</v>
+        <v>46.511627906976742</v>
       </c>
       <c r="F245" s="11">
-        <v>66.596194503171247</v>
+        <v>80.338266384778009</v>
       </c>
       <c r="G245" s="11">
-        <v>93.657505285412256</v>
+        <v>98.097251585623681</v>
       </c>
       <c r="H245" s="11">
-        <v>97.674418604651152</v>
+        <v>99.577167019027485</v>
       </c>
       <c r="I245" s="11">
-        <v>99.577167019027485</v>
+        <v>100</v>
       </c>
       <c r="J245" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="15">
@@ -7352,7 +7365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>20</v>
       </c>
@@ -7363,28 +7376,28 @@
         <v>695</v>
       </c>
       <c r="D247" s="13">
-        <v>1.9169240953221538</v>
+        <v>1.9064600192017556</v>
       </c>
       <c r="E247" s="11">
-        <v>30.647482014388487</v>
+        <v>47.913669064748198</v>
       </c>
       <c r="F247" s="11">
-        <v>67.194244604316538</v>
+        <v>82.733812949640281</v>
       </c>
       <c r="G247" s="11">
-        <v>93.381294964028768</v>
+        <v>98.273381294964025</v>
       </c>
       <c r="H247" s="11">
-        <v>97.697841726618705</v>
+        <v>99.568345323740999</v>
       </c>
       <c r="I247" s="11">
-        <v>99.712230215827333</v>
+        <v>100</v>
       </c>
       <c r="J247" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="15">
@@ -7412,7 +7425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="15"/>
@@ -7424,7 +7437,7 @@
       <c r="I249" s="16"/>
       <c r="J249" s="17"/>
     </row>
-    <row r="250" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>55</v>
       </c>
@@ -7456,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="15">
@@ -7484,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>20</v>
       </c>
@@ -7516,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="15">
@@ -7544,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>20</v>
       </c>
@@ -7576,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="15">
@@ -7604,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="18"/>
       <c r="B256" s="18"/>
       <c r="C256" s="18"/>
@@ -7616,7 +7629,7 @@
       <c r="I256" s="18"/>
       <c r="J256" s="18"/>
     </row>
-    <row r="257" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>56</v>
       </c>
@@ -7648,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="15">
@@ -7676,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>20</v>
       </c>
@@ -7708,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="15">
@@ -7736,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>20</v>
       </c>
@@ -7768,7 +7781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="15">
@@ -7796,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="15"/>
@@ -7808,7 +7821,7 @@
       <c r="I263" s="16"/>
       <c r="J263" s="17"/>
     </row>
-    <row r="264" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>57</v>
       </c>
@@ -7819,7 +7832,7 @@
         <v>8</v>
       </c>
       <c r="D264" s="13">
-        <v>5.0409577819785757E-2</v>
+        <v>5.0109614782336359E-2</v>
       </c>
       <c r="E264" s="11">
         <v>37.5</v>
@@ -7840,7 +7853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="15">
@@ -7868,7 +7881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>20</v>
       </c>
@@ -7879,7 +7892,7 @@
         <v>14</v>
       </c>
       <c r="D266" s="13">
-        <v>6.867458059452565E-2</v>
+        <v>6.8326012689116644E-2</v>
       </c>
       <c r="E266" s="11">
         <v>57.142857142857139</v>
@@ -7900,7 +7913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="15">
@@ -7928,7 +7941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
         <v>20</v>
       </c>
@@ -7939,7 +7952,7 @@
         <v>22</v>
       </c>
       <c r="D268" s="13">
-        <v>6.0679611650485431E-2</v>
+        <v>6.0348374708544782E-2</v>
       </c>
       <c r="E268" s="11">
         <v>50</v>
@@ -7960,7 +7973,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="15">
@@ -7988,7 +8001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="15"/>
@@ -8000,7 +8013,7 @@
       <c r="I270" s="16"/>
       <c r="J270" s="17"/>
     </row>
-    <row r="271" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>58</v>
       </c>
@@ -8011,28 +8024,28 @@
         <v>343</v>
       </c>
       <c r="D271" s="13">
-        <v>2.1613106490233145</v>
+        <v>2.1484497337926718</v>
       </c>
       <c r="E271" s="11">
-        <v>13.119533527696792</v>
+        <v>20.699708454810494</v>
       </c>
       <c r="F271" s="11">
-        <v>36.734693877551024</v>
+        <v>53.644314868804663</v>
       </c>
       <c r="G271" s="11">
-        <v>66.763848396501459</v>
+        <v>87.172011661807574</v>
       </c>
       <c r="H271" s="11">
-        <v>88.629737609329453</v>
+        <v>96.501457725947532</v>
       </c>
       <c r="I271" s="11">
-        <v>96.209912536443156</v>
+        <v>99.416909620991262</v>
       </c>
       <c r="J271" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="15">
@@ -8060,7 +8073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>20</v>
       </c>
@@ -8071,28 +8084,28 @@
         <v>420</v>
       </c>
       <c r="D273" s="13">
-        <v>2.0602374178357694</v>
+        <v>2.0497803806734991</v>
       </c>
       <c r="E273" s="11">
-        <v>9.5238095238095237</v>
+        <v>22.857142857142858</v>
       </c>
       <c r="F273" s="11">
-        <v>39.285714285714285</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="G273" s="11">
-        <v>72.142857142857139</v>
+        <v>91.19047619047619</v>
       </c>
       <c r="H273" s="11">
-        <v>92.857142857142861</v>
+        <v>98.571428571428584</v>
       </c>
       <c r="I273" s="11">
-        <v>96.904761904761898</v>
+        <v>100</v>
       </c>
       <c r="J273" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="15">
@@ -8120,7 +8133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
         <v>20</v>
       </c>
@@ -8131,28 +8144,28 @@
         <v>763</v>
       </c>
       <c r="D275" s="13">
-        <v>2.1044792586054721</v>
+        <v>2.0929913592099849</v>
       </c>
       <c r="E275" s="11">
-        <v>11.140235910878113</v>
+        <v>21.887287024901703</v>
       </c>
       <c r="F275" s="11">
-        <v>38.138925294888601</v>
+        <v>56.225425950196595</v>
       </c>
       <c r="G275" s="11">
-        <v>69.724770642201833</v>
+        <v>89.384010484927913</v>
       </c>
       <c r="H275" s="11">
-        <v>90.956749672346007</v>
+        <v>97.640891218872866</v>
       </c>
       <c r="I275" s="11">
-        <v>96.592398427260818</v>
+        <v>99.737876802096977</v>
       </c>
       <c r="J275" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="15">
@@ -8180,7 +8193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="15"/>
@@ -8192,7 +8205,7 @@
       <c r="I277" s="16"/>
       <c r="J277" s="17"/>
     </row>
-    <row r="278" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>59</v>
       </c>
@@ -8203,28 +8216,28 @@
         <v>197</v>
       </c>
       <c r="D278" s="13">
-        <v>1.2413358538122243</v>
+        <v>1.2339492640150329</v>
       </c>
       <c r="E278" s="11">
-        <v>23.857868020304569</v>
+        <v>27.918781725888326</v>
       </c>
       <c r="F278" s="11">
-        <v>48.73096446700508</v>
+        <v>57.868020304568525</v>
       </c>
       <c r="G278" s="11">
-        <v>69.035532994923855</v>
+        <v>88.324873096446694</v>
       </c>
       <c r="H278" s="11">
-        <v>87.309644670050758</v>
+        <v>97.46192893401016</v>
       </c>
       <c r="I278" s="11">
-        <v>95.431472081218274</v>
+        <v>99.492385786802032</v>
       </c>
       <c r="J278" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="15">
@@ -8252,7 +8265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
         <v>20</v>
       </c>
@@ -8263,28 +8276,28 @@
         <v>773</v>
       </c>
       <c r="D280" s="13">
-        <v>3.7918179142548811</v>
+        <v>3.7725719863347975</v>
       </c>
       <c r="E280" s="11">
-        <v>32.600258732212161</v>
+        <v>41.65588615782665</v>
       </c>
       <c r="F280" s="11">
-        <v>59.896507115135833</v>
+        <v>72.703751617076335</v>
       </c>
       <c r="G280" s="11">
-        <v>81.630012936610612</v>
+        <v>92.884864165588624</v>
       </c>
       <c r="H280" s="11">
-        <v>92.496765847348001</v>
+        <v>98.576972833117722</v>
       </c>
       <c r="I280" s="11">
-        <v>97.542043984476066</v>
+        <v>99.870633893919788</v>
       </c>
       <c r="J280" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="15">
@@ -8312,7 +8325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
         <v>20</v>
       </c>
@@ -8323,28 +8336,28 @@
         <v>970</v>
       </c>
       <c r="D282" s="13">
-        <v>2.6754192409532216</v>
+        <v>2.6608147030585654</v>
       </c>
       <c r="E282" s="11">
-        <v>30.824742268041238</v>
+        <v>38.865979381443303</v>
       </c>
       <c r="F282" s="11">
-        <v>57.628865979381438</v>
+        <v>69.69072164948453</v>
       </c>
       <c r="G282" s="11">
-        <v>79.072164948453604</v>
+        <v>91.958762886597938</v>
       </c>
       <c r="H282" s="11">
-        <v>91.44329896907216</v>
+        <v>98.350515463917517</v>
       </c>
       <c r="I282" s="11">
-        <v>97.113402061855666</v>
+        <v>99.793814432989691</v>
       </c>
       <c r="J282" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="15">
@@ -8372,7 +8385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="15"/>
@@ -8384,7 +8397,7 @@
       <c r="I284" s="16"/>
       <c r="J284" s="17"/>
     </row>
-    <row r="285" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="8" t="s">
         <v>60</v>
       </c>
@@ -8392,31 +8405,31 @@
         <v>19</v>
       </c>
       <c r="C285" s="10">
-        <v>15870</v>
+        <v>15965</v>
       </c>
       <c r="D285" s="14">
         <v>100</v>
       </c>
       <c r="E285" s="12">
-        <v>25.885318210459989</v>
+        <v>35.891011587848418</v>
       </c>
       <c r="F285" s="12">
-        <v>52.955261499684937</v>
+        <v>67.572815533980574</v>
       </c>
       <c r="G285" s="12">
-        <v>76.093257718966598</v>
+        <v>89.871594112120263</v>
       </c>
       <c r="H285" s="12">
-        <v>89.092627599243855</v>
+        <v>97.124960851863449</v>
       </c>
       <c r="I285" s="12">
-        <v>95.36862003780719</v>
+        <v>99.411212026307552</v>
       </c>
       <c r="J285" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="15">
@@ -8444,7 +8457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
         <v>20</v>
       </c>
@@ -8452,31 +8465,31 @@
         <v>21</v>
       </c>
       <c r="C287" s="9">
-        <v>20386</v>
+        <v>20490</v>
       </c>
       <c r="D287" s="13">
         <v>100</v>
       </c>
       <c r="E287" s="11">
-        <v>32.129893063867357</v>
+        <v>43.074670571010252</v>
       </c>
       <c r="F287" s="11">
-        <v>60.198175218287062</v>
+        <v>73.85553928745729</v>
       </c>
       <c r="G287" s="11">
-        <v>81.781614833709398</v>
+        <v>93.240605173255247</v>
       </c>
       <c r="H287" s="11">
-        <v>92.534092023938001</v>
+        <v>98.291849682772082</v>
       </c>
       <c r="I287" s="11">
-        <v>97.150004905327179</v>
+        <v>99.619326500732058</v>
       </c>
       <c r="J287" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="15">
@@ -8504,7 +8517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
         <v>20</v>
       </c>
@@ -8512,31 +8525,31 @@
         <v>22</v>
       </c>
       <c r="C289" s="9">
-        <v>36256</v>
+        <v>36455</v>
       </c>
       <c r="D289" s="13">
         <v>100</v>
       </c>
       <c r="E289" s="11">
-        <v>29.396513680494262</v>
+        <v>39.928679193526264</v>
       </c>
       <c r="F289" s="11">
-        <v>57.027802294792586</v>
+        <v>71.104100946372242</v>
       </c>
       <c r="G289" s="11">
-        <v>79.291703442188876</v>
+        <v>91.76518996022493</v>
       </c>
       <c r="H289" s="11">
-        <v>91.027691968225938</v>
+        <v>97.780825675490334</v>
       </c>
       <c r="I289" s="11">
-        <v>96.370255957634598</v>
+        <v>99.528185434096827</v>
       </c>
       <c r="J289" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="15">
@@ -8564,7 +8577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="18"/>
       <c r="B291" s="18"/>
       <c r="C291" s="18"/>
@@ -8576,24 +8589,24 @@
       <c r="I291" s="18"/>
       <c r="J291" s="18"/>
     </row>
-    <row r="292" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A298" s="19" t="s">
-        <v>66</v>
+    <row r="298" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="20" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -8606,7 +8619,7 @@
     <mergeCell ref="A8:J8"/>
   </mergeCells>
   <pageMargins left="0.39370100000000002" right="0.39370100000000002" top="0.59" bottom="0.59" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="5" manualBreakCount="5">
     <brk id="60" max="16383" man="1"/>
     <brk id="109" max="16383" man="1"/>
@@ -8621,6 +8634,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010090D0A8DD6E31254CB6B82BDDBE6EF879" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61df0b1d8400fc727567e63bfe041aeb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b5ce7ee-8aee-4f1d-80d8-e6e7f973b835" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d048d99c9241f1c9d2995dcd3d31fee4" ns2:_="">
     <xsd:import namespace="9b5ce7ee-8aee-4f1d-80d8-e6e7f973b835"/>
@@ -8804,15 +8826,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -8820,7 +8833,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E81EE8E7-4C4B-40C2-A5BA-48CAC486BE09}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DB57B6C-EF27-4AAB-B725-DCC96A0E7F6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09BF0DE3-1149-45E8-A862-5EC2A8B58CEC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -8837,16 +8858,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A656AD29-4835-4351-AC32-31D4A7F53A05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BFC1E19-1DED-4D61-A403-086CD9430238}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC5D783-500C-4085-A489-F6F6A68F9C6E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
